--- a/src/test/java/com/pack/testData/LaborStructure_Assignments.xlsx
+++ b/src/test/java/com/pack/testData/LaborStructure_Assignments.xlsx
@@ -97,8 +97,11 @@
     <t>A</t>
   </si>
   <si>
-    <t xml:space="preserve">Auto Job1
+    <t xml:space="preserve">Auto Job1
 </t>
+  </si>
+  <si>
+    <t>Auto Div2</t>
   </si>
 </sst>
 </file>
@@ -452,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L:L" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -524,13 +527,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -539,7 +542,7 @@
         <v>17</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -548,7 +551,7 @@
         <v>18</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>

--- a/src/test/java/com/pack/testData/LaborStructure_Assignments.xlsx
+++ b/src/test/java/com/pack/testData/LaborStructure_Assignments.xlsx
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Auto Div2</t>
+  </si>
+  <si>
+    <t>Auto Div4</t>
   </si>
 </sst>
 </file>
@@ -455,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -527,13 +530,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -542,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -551,7 +554,7 @@
         <v>18</v>
       </c>
       <c r="I2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
